--- a/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
+++ b/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>km</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>KG</t>
   </si>
   <si>
     <t>Trip</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
 </sst>
 </file>
@@ -368,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +373,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,9 +388,6 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
+++ b/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
@@ -22,13 +22,13 @@
     <t>V</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>Trip</t>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Q2 (Ton)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>

--- a/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
+++ b/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>#</t>
   </si>
@@ -22,7 +22,10 @@
     <t>V</t>
   </si>
   <si>
-    <t>Place</t>
+    <t>Place1</t>
+  </si>
+  <si>
+    <t>Place2</t>
   </si>
   <si>
     <t>Q2 (Ton)</t>
@@ -365,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,7 +376,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,6 +391,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
+++ b/horizon/xl_templates/48006_new_asldfkj_alsdnvla.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="new_asldfkj alsdnvla" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_asldfkj alsdnvla" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19,19 +20,19 @@
     <t>#</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Place1</t>
-  </si>
-  <si>
-    <t>Place2</t>
-  </si>
-  <si>
-    <t>Q2 (Ton)</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Location From</t>
+  </si>
+  <si>
+    <t>Location To</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Trips</t>
   </si>
 </sst>
 </file>
@@ -69,12 +70,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -374,7 +374,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
